--- a/Progress Report/AML_Gantt Chart.xlsx
+++ b/Progress Report/AML_Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rech Leong\Desktop\FYP\Documentation\Progress Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CB3BFA-ADC1-40EB-B0ED-060C3A2E6E1F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842D54A3-D0C0-45EA-8F61-6C3C5CEC3404}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,7 +399,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>WBS</t>
   </si>
@@ -476,10 +476,13 @@
     <t>Documenting Requirements</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>Research on Neural Networks and their Vulnerabilities</t>
   </si>
   <si>
-    <t>Research on Adversarial Attacks</t>
+    <t>Research on Adversarial Attacks on Neural Networks</t>
+  </si>
+  <si>
+    <t>Attempting to setup Neural Network to be Attacked</t>
   </si>
 </sst>
 </file>
@@ -2159,8 +2162,8 @@
   <dimension ref="A1:BN44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T13" sqref="T13"/>
+      <pane ySplit="7" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z12" sqref="Z12:AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3025,17 +3028,17 @@
       </c>
       <c r="F9" s="68">
         <f>IF(ISBLANK(E9)," - ",IF(G9=0,E9,E9+G9-1))</f>
-        <v>43733</v>
+        <v>43742</v>
       </c>
       <c r="G9" s="102">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H9" s="103">
         <v>0.2</v>
       </c>
       <c r="I9" s="31">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J9" s="62"/>
       <c r="K9" s="74"/>
@@ -3095,11 +3098,11 @@
       <c r="BM9" s="74"/>
       <c r="BN9" s="74"/>
     </row>
-    <row r="10" spans="1:66" s="28" customFormat="1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="95" t="s">
+    <row r="10" spans="1:66" s="28" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="27">
+        <v>1.2</v>
+      </c>
+      <c r="B10" s="93" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="94"/>
@@ -3114,7 +3117,7 @@
         <v>21</v>
       </c>
       <c r="H10" s="103">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="I10" s="31">
         <f t="shared" si="4"/>
@@ -3178,31 +3181,30 @@
       <c r="BM10" s="74"/>
       <c r="BN10" s="74"/>
     </row>
-    <row r="11" spans="1:66" s="28" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>1.2</v>
+    <row r="11" spans="1:66" s="28" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="27">
+        <v>1.3</v>
       </c>
       <c r="B11" s="93" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D11" s="94"/>
       <c r="E11" s="101">
-        <v>43139</v>
+        <v>43731</v>
       </c>
       <c r="F11" s="68">
         <f t="shared" si="6"/>
-        <v>43142</v>
+        <v>43751</v>
       </c>
       <c r="G11" s="102">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="H11" s="103">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I11" s="31">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J11" s="62"/>
       <c r="K11" s="74"/>
@@ -3262,31 +3264,31 @@
       <c r="BM11" s="74"/>
       <c r="BN11" s="74"/>
     </row>
-    <row r="12" spans="1:66" s="28" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:66" s="28" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="str">
         <f t="shared" si="5"/>
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="B12" s="93" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D12" s="94"/>
       <c r="E12" s="101">
-        <v>43132</v>
+        <v>43735</v>
       </c>
       <c r="F12" s="68">
         <f t="shared" si="6"/>
-        <v>43135</v>
+        <v>43741</v>
       </c>
       <c r="G12" s="102">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H12" s="103">
-        <v>0.75</v>
+        <v>0.2</v>
       </c>
       <c r="I12" s="31">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J12" s="62"/>
       <c r="K12" s="74"/>
@@ -3349,7 +3351,7 @@
     <row r="13" spans="1:66" s="28" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.3.1</v>
+        <v>1.4.1</v>
       </c>
       <c r="B13" s="95" t="s">
         <v>19</v>
@@ -3433,7 +3435,7 @@
     <row r="14" spans="1:66" s="28" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.3.2</v>
+        <v>1.4.2</v>
       </c>
       <c r="B14" s="95" t="s">
         <v>19</v>
@@ -3517,7 +3519,7 @@
     <row r="15" spans="1:66" s="28" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="str">
         <f t="shared" si="5"/>
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="B15" s="93" t="s">
         <v>3</v>
@@ -3601,7 +3603,7 @@
     <row r="16" spans="1:66" s="28" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="str">
         <f t="shared" si="5"/>
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="B16" s="93" t="s">
         <v>3</v>
@@ -3685,7 +3687,7 @@
     <row r="17" spans="1:66" s="28" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="str">
         <f t="shared" si="5"/>
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="B17" s="93" t="s">
         <v>3</v>
@@ -5989,7 +5991,7 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A36:B37 B31 B32:B34 B25:B28 B19:B22 G13:H13 G12 G16 G14:H14 A39:B39 B38 E18 E24 E30 E36:H39 G15 G11 G18:H18 G24:H24 G30:H34 H22 G40 G41:G42 G43 H20 H21 H25:H28" unlockedFormula="1"/>
+    <ignoredError sqref="A36:B37 B31 B32:B34 B25:B28 B19:B22 G13:H13 G16 G14:H14 A39:B39 B38 E18 E24 E30 E36:H39 G15 G18:H18 G24:H24 G30:H34 H22 G40 G41:G42 G43 H20 H21 H25:H28" unlockedFormula="1"/>
     <ignoredError sqref="A30 A24 A18" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
